--- a/Documents/Доработки.xlsx
+++ b/Documents/Доработки.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emo\Documents\GitHub\AmbulanceGraphics\Documents\"/>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Текущи" sheetId="1" r:id="rId1"/>
-    <sheet name="История" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="История" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Текущи корекции</t>
   </si>
@@ -129,10 +130,46 @@
     <t>Да се оцветяват колоните в таблиците за персоналните графици</t>
   </si>
   <si>
-    <t>Да се прави генерация на графици на база звено, а не само на база цялата организация -отпада. Вместо това при преместване на служител от едно звено в друго да се прегенерира графика му в съответствие на графика на звеното приемник.</t>
-  </si>
-  <si>
     <t>Да се отваря досието на лицето от прозореца графици и да се опресняват данните след редакция.</t>
+  </si>
+  <si>
+    <t>Вместо стационар да се изписва името на звеното родител</t>
+  </si>
+  <si>
+    <t>За хората от стационар да има номерация</t>
+  </si>
+  <si>
+    <t>От графици ркц първа смяна не отварч досието</t>
+  </si>
+  <si>
+    <t>Персонала в структурата да излиза подреден в съответствие с подребата на длъжностите</t>
+  </si>
+  <si>
+    <t>Да се добави работно време в назначението, часови пояс и номенклатура, редовен, сменен.</t>
+  </si>
+  <si>
+    <t>Принципно има проблем когато върху графика нанеса отпуски или болничен това качва месечния нормматив</t>
+  </si>
+  <si>
+    <t>Да се добави добави вид отсъствие отс - неопределено</t>
+  </si>
+  <si>
+    <t>Да се добави кутийка да покаже всички от всякъде в екипите</t>
+  </si>
+  <si>
+    <t>Да се помисли дали е възможно един времене екип да съществува за повече от една дата. Когато окомплектовам временен екип , виж екип 22 в  1 СМЯНА ЦСМП, дали има опция да се маркира повече от една дата в календара, и да излизат автоматично този временен екип на тези дежурства, но под един и същи номер на екипа, защото те в случая ще бъдат заедно на 4 дати, защото сега се налага на всяка дата да ги окомплектовам с различен номер екип!!!!!</t>
+  </si>
+  <si>
+    <t>Spisyk s indikatorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3. - да съответства на </t>
+  </si>
+  <si>
+    <t>при преместване на служител от едно звено в друго да се прегенерира графика му в съответствие на графика на звеното приемник.</t>
+  </si>
+  <si>
+    <t>Да се прави генерация на графици на база звено, а не само на база цялата организация.</t>
   </si>
 </sst>
 </file>
@@ -503,10 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,13 +622,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2">
-        <v>42450</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E5" s="4">
         <v>42452</v>
       </c>
     </row>
@@ -854,12 +893,12 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>34</v>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8">
@@ -906,7 +945,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
@@ -919,67 +958,187 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8">
+        <v>42456</v>
+      </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4">
+        <v>42456</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8">
+        <v>42456</v>
+      </c>
       <c r="E28" s="8"/>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>42456</v>
+      </c>
+      <c r="E31" s="4">
+        <v>42457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E39" s="2">
         <v>42454</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E32">
+      <c r="E40">
         <v>27.032015999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4">
         <v>42453</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E42" s="2">
         <v>42461</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E43" s="2">
         <v>42475</v>
       </c>
     </row>
@@ -991,6 +1150,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Documents/Доработки.xlsx
+++ b/Documents/Доработки.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Текущи" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="История" sheetId="2" r:id="rId3"/>
+    <sheet name="История" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Текущи корекции</t>
   </si>
@@ -43,21 +43,9 @@
     <t>Функционалности за довършване</t>
   </si>
   <si>
-    <t>1. Да може да се утвърждава генерирания и коригиран прогнозен график</t>
-  </si>
-  <si>
-    <t>2. Да може да се генерира дневен график</t>
-  </si>
-  <si>
     <t>3. Да може да се редактира графика на всяко лице по отделно</t>
   </si>
   <si>
-    <t>4. Да може да се импортират данни за присъствените форми</t>
-  </si>
-  <si>
-    <t>5. Да може да се генерира прогнозен отчет за ТРЗ на базата на присъствените форми и графика за текущия месец</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>Екипите да се сортират по работно време</t>
   </si>
   <si>
-    <t>Да се визуализира номер на екипа - момента не ми е ясно какво сме имали предвид</t>
-  </si>
-  <si>
     <t>Името на екипа да е само число - т.е. да не може да се  въвеждат букви в инмето</t>
   </si>
   <si>
@@ -166,10 +151,81 @@
     <t xml:space="preserve">7.3. - да съответства на </t>
   </si>
   <si>
-    <t>при преместване на служител от едно звено в друго да се прегенерира графика му в съответствие на графика на звеното приемник.</t>
-  </si>
-  <si>
     <t>Да се прави генерация на графици на база звено, а не само на база цялата организация.</t>
+  </si>
+  <si>
+    <t>1. Да може да се импортират данни за присъствените форми</t>
+  </si>
+  <si>
+    <t>2. Да може да се прекратяват служители.</t>
+  </si>
+  <si>
+    <t>При преместване на служител от едно звено в друго да се прегенерира графика му в съответствие на графика на звеното приемник.</t>
+  </si>
+  <si>
+    <t>Когато лице сменя назначението си - друго звено или длъжност,  текущия му екип става временен, като датата на валидност на екипа е до датата на влизане в сила на следващото споразумение.</t>
+  </si>
+  <si>
+    <t>Всички екипи да имат дата от до.</t>
+  </si>
+  <si>
+    <t>При генериране на график всички без екип да излизат най-отзад, като са посочени точно смените за които нямат екип.</t>
+  </si>
+  <si>
+    <t>При преназначаване на служител графика да се преизчислява с графика на новото звено от датата на преназначението.</t>
+  </si>
+  <si>
+    <t>Да се извлича стартовата смяна автоматично</t>
+  </si>
+  <si>
+    <t>При генериране на всякакъв вид график (екран - разпечатка) да се използват назначенията по дата, а не по текуща валидност.</t>
+  </si>
+  <si>
+    <t>Да се добави дата на валидност на назначението - валидно до - попълвано само автоматично - при преназначаване и при прекратяване.</t>
+  </si>
+  <si>
+    <t>При въвеждане на отсъствие да се затваря досието</t>
+  </si>
+  <si>
+    <t>След въвеждане на прогнозен график да си затаваря само прозорчето</t>
+  </si>
+  <si>
+    <t>При назначаване да генерира график</t>
+  </si>
+  <si>
+    <t>Изчисляването на празниците за нощна смяна да става съобразно правилата за застъпване и часовия пояс.</t>
+  </si>
+  <si>
+    <t>При единичен прогнозен график да се добави рекапитулация</t>
+  </si>
+  <si>
+    <t>Да се създадат типове на звената</t>
+  </si>
+  <si>
+    <t>Да се оставят само първите 6 реда от рекапитулацията</t>
+  </si>
+  <si>
+    <t>Да се добави ред допълнителни преди реда общо</t>
+  </si>
+  <si>
+    <t>Да се добави ред общо</t>
+  </si>
+  <si>
+    <t>Хората които дават дежурство и са неекипирани да се появяват в разпечатката.</t>
+  </si>
+  <si>
+    <t>Рекапитуалиция по типове звена 
+- обслужващо - без 
+- филиал с една обща
+- цсмп - рекапитулация за всяка смяна
+- РКЦ - рекапитулация по звена, но само с брой хора
+- Администрация - без</t>
+  </si>
+  <si>
+    <t>Да се направи оцветяване на екипите</t>
+  </si>
+  <si>
+    <t>3. Да се генерира новата форма на дневна разпечатка.</t>
   </si>
 </sst>
 </file>
@@ -200,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,12 +266,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -252,9 +302,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -541,10 +588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -566,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -577,569 +624,239 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2">
         <v>42450</v>
       </c>
-      <c r="E2" s="4">
-        <v>42452</v>
+      <c r="E2" s="2">
+        <v>42454</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="B3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2">
         <v>42450</v>
       </c>
-      <c r="E3" s="4">
-        <v>42452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E4" s="7">
-        <v>42452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E5" s="4">
-        <v>42452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E6" s="4">
-        <v>42452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E7" s="4">
-        <v>42450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2">
-        <v>42450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E9" s="4">
-        <v>42451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E10" s="4">
-        <v>42450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2">
-        <v>42450</v>
-      </c>
-      <c r="E11" s="2">
-        <v>42454</v>
-      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E12" s="4">
-        <v>42452</v>
-      </c>
+      <c r="B12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E13" s="4">
-        <v>42452</v>
-      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2">
-        <v>42450</v>
-      </c>
-      <c r="E14" s="2">
-        <v>42452</v>
-      </c>
+      <c r="B14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E15" s="4">
-        <v>42452</v>
-      </c>
+      <c r="B15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E16" s="4">
-        <v>42452</v>
-      </c>
+      <c r="B16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E17" s="4">
-        <v>42452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E18" s="4">
-        <v>42451</v>
-      </c>
+      <c r="B18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E19" s="4">
-        <v>42451</v>
-      </c>
+      <c r="B19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E20" s="4">
-        <v>42452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E21" s="4">
-        <v>42452</v>
-      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="8">
-        <v>42452</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="B22" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2">
         <v>42461</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="8">
-        <v>42452</v>
-      </c>
-      <c r="E23" s="8">
-        <v>42457</v>
-      </c>
-    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>42452</v>
-      </c>
-      <c r="E24" s="4">
-        <v>42453</v>
+      <c r="B24" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>42452</v>
-      </c>
-      <c r="E25" s="4">
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="8">
-        <v>42456</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4">
-        <v>42456</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8">
-        <v>42456</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8">
-        <v>42456</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8">
-        <v>42456</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4">
-        <v>42456</v>
-      </c>
-      <c r="E31" s="4">
-        <v>42457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8">
-        <v>42456</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8">
-        <v>42456</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8">
-        <v>42456</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="2">
-        <v>42454</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>27.032015999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4">
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2">
-        <v>42475</v>
+      <c r="B25" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1149,6 +866,519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E2" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E8" s="4">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42451</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>42451</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42451</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42451</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42451</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42451</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42451</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8">
+        <v>42452</v>
+      </c>
+      <c r="E19" s="8">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42452</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42452</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4">
+        <v>42456</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>42456</v>
+      </c>
+      <c r="E23" s="4">
+        <v>42457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8">
+        <v>42452</v>
+      </c>
+      <c r="E25" s="8">
+        <v>42457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A2"/>
@@ -1164,28 +1394,15 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documents/Доработки.xlsx
+++ b/Documents/Доработки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11835"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Текущи" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Текущи корекции</t>
   </si>
@@ -196,22 +196,7 @@
     <t>Изчисляването на празниците за нощна смяна да става съобразно правилата за застъпване и часовия пояс.</t>
   </si>
   <si>
-    <t>При единичен прогнозен график да се добави рекапитулация</t>
-  </si>
-  <si>
     <t>Да се създадат типове на звената</t>
-  </si>
-  <si>
-    <t>Да се оставят само първите 6 реда от рекапитулацията</t>
-  </si>
-  <si>
-    <t>Да се добави ред допълнителни преди реда общо</t>
-  </si>
-  <si>
-    <t>Да се добави ред общо</t>
-  </si>
-  <si>
-    <t>Хората които дават дежурство и са неекипирани да се появяват в разпечатката.</t>
   </si>
   <si>
     <t>Рекапитуалиция по типове звена 
@@ -588,10 +573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,12 +738,12 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="8"/>
@@ -766,7 +751,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>58</v>
@@ -776,87 +761,32 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E18" s="2">
         <v>42461</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>64</v>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1300,7 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Доработки.xlsx
+++ b/Documents/Доработки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Текущи" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Текущи корекции</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Да се генерира графика за печат с размер на листа А3</t>
   </si>
   <si>
-    <t>Да се добави ред общ брой екипи в рекапитулацията</t>
-  </si>
-  <si>
     <t>Да се утвърждава графика на база звено</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t>Да се отваря досието на лицето от прозореца графици и да се опресняват данните след редакция.</t>
   </si>
   <si>
-    <t>Вместо стационар да се изписва името на звеното родител</t>
-  </si>
-  <si>
-    <t>За хората от стационар да има номерация</t>
-  </si>
-  <si>
     <t>От графици ркц първа смяна не отварч досието</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>1. Да може да се импортират данни за присъствените форми</t>
   </si>
   <si>
-    <t>2. Да може да се прекратяват служители.</t>
-  </si>
-  <si>
     <t>При преместване на служител от едно звено в друго да се прегенерира графика му в съответствие на графика на звеното приемник.</t>
   </si>
   <si>
@@ -179,9 +167,6 @@
   </si>
   <si>
     <t>При генериране на всякакъв вид график (екран - разпечатка) да се използват назначенията по дата, а не по текуща валидност.</t>
-  </si>
-  <si>
-    <t>Да се добави дата на валидност на назначението - валидно до - попълвано само автоматично - при преназначаване и при прекратяване.</t>
   </si>
   <si>
     <t>При въвеждане на отсъствие да се затваря досието</t>
@@ -573,10 +558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,174 +604,118 @@
         <v>42454</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2">
-        <v>42450</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8">
+        <v>42456</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="8">
-        <v>42456</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="8">
-        <v>42456</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="8">
-        <v>42456</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
       <c r="C11" s="5"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>18</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1046,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="8">
@@ -1132,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>3</v>
@@ -1149,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>3</v>
@@ -1166,7 +1095,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4">
@@ -1179,7 +1108,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>3</v>
@@ -1206,7 +1135,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="8">
@@ -1221,7 +1150,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="8">
@@ -1234,7 +1163,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="8">
@@ -1247,7 +1176,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="8">
@@ -1260,7 +1189,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="8">
@@ -1270,37 +1199,37 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1324,12 +1253,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
